--- a/Estates Progress.xlsx
+++ b/Estates Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>Region</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>GIS data Done</t>
-  </si>
-  <si>
-    <t>Uploaded photos</t>
   </si>
 </sst>
 </file>
@@ -645,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,7 +820,7 @@
         <v>43971</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -855,7 +852,7 @@
         <v>43972</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1047,7 +1044,7 @@
         <v>43970</v>
       </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1111,7 +1108,7 @@
         <v>43971</v>
       </c>
       <c r="M14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1143,7 +1140,7 @@
         <v>43971</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">

--- a/Estates Progress.xlsx
+++ b/Estates Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
   <si>
     <t>Region</t>
   </si>
@@ -328,10 +328,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,14 +362,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,7 +654,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1296,11 +1307,11 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="L20" t="s">
-        <v>95</v>
+      <c r="L20" s="1">
+        <v>43978</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1325,14 +1336,14 @@
       <c r="J21">
         <v>11</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L21" t="s">
-        <v>95</v>
+      <c r="L21" s="1">
+        <v>43978</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1360,11 +1371,11 @@
       <c r="K22" t="s">
         <v>90</v>
       </c>
-      <c r="L22" t="s">
-        <v>95</v>
+      <c r="L22" s="1">
+        <v>43978</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1400,7 +1411,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Estates Progress.xlsx
+++ b/Estates Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>Region</t>
   </si>
@@ -654,7 +654,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,11 +891,11 @@
       <c r="K7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" t="s">
-        <v>95</v>
+      <c r="L7" s="1">
+        <v>43980</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -987,11 +987,11 @@
       <c r="K10" t="s">
         <v>48</v>
       </c>
-      <c r="L10" t="s">
-        <v>95</v>
+      <c r="L10" s="1">
+        <v>43983</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1019,11 +1019,11 @@
       <c r="K11" t="s">
         <v>51</v>
       </c>
-      <c r="L11" t="s">
-        <v>95</v>
+      <c r="L11" s="1">
+        <v>43983</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1083,11 +1083,11 @@
       <c r="K13" t="s">
         <v>60</v>
       </c>
-      <c r="L13" t="s">
-        <v>95</v>
+      <c r="L13" s="1">
+        <v>43980</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">

--- a/Estates Progress.xlsx
+++ b/Estates Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>Region</t>
   </si>
@@ -654,7 +654,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,11 +763,11 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>95</v>
+      <c r="L3" s="1">
+        <v>43987</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -795,11 +795,11 @@
       <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
-        <v>95</v>
+      <c r="L4" s="1">
+        <v>43987</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -923,11 +923,11 @@
       <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="L8" t="s">
-        <v>95</v>
+      <c r="L8" s="1">
+        <v>43986</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -955,11 +955,11 @@
       <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" t="s">
-        <v>95</v>
+      <c r="L9" s="1">
+        <v>43986</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">

--- a/Estates Progress.xlsx
+++ b/Estates Progress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
   <si>
     <t>Region</t>
   </si>
@@ -322,6 +322,87 @@
   </si>
   <si>
     <t>GIS data Done</t>
+  </si>
+  <si>
+    <t>PaperMapWithMark</t>
+  </si>
+  <si>
+    <t>Collected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Basic Impression</t>
+  </si>
+  <si>
+    <t>Most of blocks were demolished after 1987, so the planting plan is new</t>
+  </si>
+  <si>
+    <t>Phase 1, phase 2, phase 3, built in mountain, isolated place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 different phases, one in mountain, one around streets, a garden designed on the mountain side, create a peaceful environment  </t>
+  </si>
+  <si>
+    <t>an individual unit, surrounded by BMS slopes</t>
+  </si>
+  <si>
+    <t>Sky Walk shapes the function of the estate, even the stores are on one side of the path</t>
+  </si>
+  <si>
+    <t>An estate contains a nature zone</t>
+  </si>
+  <si>
+    <t>The fountain becames a square</t>
+  </si>
+  <si>
+    <t>The centre park is in the estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkyWalk and Sky garden </t>
+  </si>
+  <si>
+    <t>Half surrounded by the sea and BMS slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half surrounded by the river bank , a central platform </t>
+  </si>
+  <si>
+    <t>next to a park, far away</t>
+  </si>
+  <si>
+    <t>next to a park</t>
+  </si>
+  <si>
+    <t>lot of edge planters are useless</t>
+  </si>
+  <si>
+    <t>the best location , almost no planter</t>
+  </si>
+  <si>
+    <t>different phase, a good chinese garden view design</t>
+  </si>
+  <si>
+    <t>near park</t>
+  </si>
+  <si>
+    <t>shared market with Yau Oi</t>
+  </si>
+  <si>
+    <t>Btn location</t>
+  </si>
+  <si>
+    <t>Btn Status</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>done(double line)</t>
   </si>
 </sst>
 </file>
@@ -366,10 +447,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -651,21 +738,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="12" max="12" width="21.36328125" customWidth="1"/>
-    <col min="13" max="13" width="24.1796875" customWidth="1"/>
+    <col min="3" max="4" width="26" customWidth="1"/>
+    <col min="5" max="6" width="19.6328125" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" customWidth="1"/>
+    <col min="10" max="10" width="3.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.90625" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,296 +766,417 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>96</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>1984</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>1980</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1">
+        <v>43970</v>
+      </c>
+      <c r="P2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>1987</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>195</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>1983</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1">
-        <v>43987</v>
-      </c>
-      <c r="M3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="1">
+        <v>43951</v>
+      </c>
+      <c r="P3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>1985</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>1984</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="1">
-        <v>43987</v>
-      </c>
-      <c r="M4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>195</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>1978</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="1">
+        <v>43971</v>
+      </c>
+      <c r="P5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>162.5</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>1982</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1">
+        <v>43980</v>
+      </c>
+      <c r="P6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>145</v>
+      </c>
+      <c r="E7">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>1984</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="1">
+        <v>43978</v>
+      </c>
+      <c r="P7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>1979</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1">
-        <v>43971</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>197.5</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>1987</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="1">
+        <v>43987</v>
+      </c>
+      <c r="P8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>1981</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1">
-        <v>43972</v>
-      </c>
-      <c r="M6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>1982</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="1">
-        <v>43980</v>
-      </c>
-      <c r="M7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>1983</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1">
-        <v>43986</v>
-      </c>
-      <c r="M8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>1981</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>197.5</v>
+      </c>
+      <c r="E9">
+        <v>195</v>
+      </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>1983</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="1">
-        <v>43986</v>
-      </c>
-      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="1">
+        <v>43980</v>
+      </c>
+      <c r="P9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -972,447 +1184,648 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
+      <c r="D10">
+        <v>232.5</v>
+      </c>
+      <c r="E10">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
         <v>1981</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>8</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10" s="1">
         <v>43983</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q10" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>232.5</v>
+      </c>
+      <c r="E11">
+        <v>195</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11">
         <v>1984</v>
       </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11">
-        <v>9</v>
-      </c>
       <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="1">
-        <v>43983</v>
-      </c>
-      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="1">
+        <v>43978</v>
+      </c>
+      <c r="P11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>1980</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>267.5</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>1982</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="1">
-        <v>43970</v>
-      </c>
-      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="1">
+        <v>43978</v>
+      </c>
+      <c r="P12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>267.5</v>
+      </c>
+      <c r="E13">
+        <v>195</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13">
         <v>1983</v>
       </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
       <c r="K13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="1">
-        <v>43980</v>
-      </c>
-      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="1">
+        <v>43986</v>
+      </c>
+      <c r="P13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>1978</v>
-      </c>
-      <c r="H14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>320</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>1981</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="1">
-        <v>43971</v>
-      </c>
-      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="1">
+        <v>43986</v>
+      </c>
+      <c r="P14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q14" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>302.5</v>
+      </c>
+      <c r="E15">
+        <v>195</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>1980</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="1">
-        <v>43971</v>
-      </c>
-      <c r="M15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="1">
+        <v>43962</v>
+      </c>
+      <c r="P15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q15" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <v>1983</v>
-      </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>355</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>1985</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="1">
-        <v>43951</v>
-      </c>
-      <c r="M16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="1">
+        <v>43987</v>
+      </c>
+      <c r="P16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>1980</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>337.5</v>
+      </c>
+      <c r="E17">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="1">
-        <v>43962</v>
-      </c>
-      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="1">
+        <v>43971</v>
+      </c>
+      <c r="P17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>390</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>1981</v>
+      </c>
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="1">
+        <v>43964</v>
+      </c>
+      <c r="P18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>390</v>
+      </c>
+      <c r="E19">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>1981</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="1">
+        <v>43972</v>
+      </c>
+      <c r="P19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>425</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>1984</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="1">
+        <v>43983</v>
+      </c>
+      <c r="P20" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>425</v>
+      </c>
+      <c r="E21">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>1979</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="1">
+        <v>43971</v>
+      </c>
+      <c r="P21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18">
+      <c r="D22">
+        <v>477.5</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22">
         <v>1982</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K22" t="s">
         <v>77</v>
       </c>
-      <c r="J18">
+      <c r="M22">
         <v>6</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N22" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="1">
+      <c r="O22" s="1">
         <v>43951</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19">
-        <v>1980</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19">
-        <v>11</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="1">
-        <v>43962</v>
-      </c>
-      <c r="M19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>1984</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20">
-        <v>8</v>
-      </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="1">
-        <v>43978</v>
-      </c>
-      <c r="M20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <v>1984</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="1">
-        <v>43978</v>
-      </c>
-      <c r="M21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <v>1982</v>
-      </c>
-      <c r="H22" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22">
-        <v>15</v>
-      </c>
-      <c r="K22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="1">
-        <v>43978</v>
-      </c>
-      <c r="M22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>1981</v>
-      </c>
-      <c r="H23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="D23">
+        <v>460</v>
+      </c>
+      <c r="E23">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>1980</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="1">
-        <v>43964</v>
-      </c>
-      <c r="M23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="1">
+        <v>43962</v>
+      </c>
+      <c r="P23" t="s">
         <v>99</v>
       </c>
+      <c r="Q23" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:O23">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K21" r:id="rId1"/>
+    <hyperlink ref="N11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
